--- a/submit.xlsx
+++ b/submit.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.610350937956023</v>
+        <v>3.567391919979527</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.68608866640158</v>
+        <v>5.330566183229276</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.733117552984327</v>
+        <v>3.130315568715984</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.277856157658378</v>
+        <v>5.243662280790064</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.162515866440777</v>
+        <v>7.376287478797854</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.866503752170867</v>
+        <v>3.290465220097461</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.041894151961515</v>
+        <v>7.878509465851398</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.332651870062186</v>
+        <v>4.681930274876351</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.857316357567209</v>
+        <v>5.187786780037213</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.733117552984327</v>
+        <v>4.168751440101681</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.734039465988069</v>
+        <v>3.161507087291315</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.866503752170867</v>
+        <v>2.002960968434806</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.805203233902125</v>
+        <v>3.436231293575043</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4.733117552984327</v>
+        <v>5.073644962987149</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4.62432133452579</v>
+        <v>5.5348699582335</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4.734039465988069</v>
+        <v>5.396400852356598</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4.760657672358807</v>
+        <v>2.209960239320732</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.760657672358807</v>
+        <v>2.521831118068676</v>
       </c>
     </row>
     <row r="20">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4.760657672358807</v>
+        <v>2.112350961438362</v>
       </c>
     </row>
     <row r="21">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.904345244149958</v>
+        <v>3.255963260834106</v>
       </c>
     </row>
     <row r="22">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4.633975542736495</v>
+        <v>3.155880162163828</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4.633975542736495</v>
+        <v>3.059388694557116</v>
       </c>
     </row>
     <row r="24">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3.332651870062186</v>
+        <v>5.050089343200461</v>
       </c>
     </row>
     <row r="25">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4.733117552984327</v>
+        <v>5.817407015355491</v>
       </c>
     </row>
     <row r="26">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4.633975542736495</v>
+        <v>2.174522098810936</v>
       </c>
     </row>
     <row r="27">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3.857316357567209</v>
+        <v>4.741641083633995</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3.805203233902125</v>
+        <v>2.173491248843146</v>
       </c>
     </row>
   </sheetData>
